--- a/biology/Botanique/Friesia/Friesia.xlsx
+++ b/biology/Botanique/Friesia/Friesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Friesia' (ou 'Sunsprite') est un cultivar de rosier obtenu en Allemagne par Reimer Kordes en 1973. Son succès est reconnu à l'international grâce à sa couleur d'un remarquable jaune d'or franc[1].
+'Friesia' (ou 'Sunsprite') est un cultivar de rosier obtenu en Allemagne par Reimer Kordes en 1973. Son succès est reconnu à l'international grâce à sa couleur d'un remarquable jaune d'or franc.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce fameux rosier floribunda présente des fleurs moyennes (7 à 8 cm) jaunes[2] parfumées (26-40 pétales) fleurissant en solitaire ou par groupe de trois ou quatre. Il ne se décolore pas à la défloraison[3]. Les boutons ovoïdes laissent place à de belles fleurs pleines doubles[4] aux pétales légèrement ondulés. La floraison est remontante[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce fameux rosier floribunda présente des fleurs moyennes (7 à 8 cm) jaunes parfumées (26-40 pétales) fleurissant en solitaire ou par groupe de trois ou quatre. Il ne se décolore pas à la défloraison. Les boutons ovoïdes laissent place à de belles fleurs pleines doubles aux pétales légèrement ondulés. La floraison est remontante.
 Le buisson érigé s'élève jusqu'à 75 cm. Son feuillage dense est semi-luisant et vert clair.
 Sa zone de rusticité est de 5b à 9b ; il supporte donc les hivers froids. Il est parfait pour éclairer les plates-bandes et les massifs et peut se cultiver en pot et pour la fleur coupée.
-Ce rosier tétraploïde est très résistant aux maladies[6]. Il serait issu d'un croisement 'Friedrich Wörlein' (Kordes, 1963) x 'Spanish Sun'[5]. Il est considéré comme l'un des meilleurs rosiers aux fleurs jaunes[7].
+Ce rosier tétraploïde est très résistant aux maladies. Il serait issu d'un croisement 'Friedrich Wörlein' (Kordes, 1963) x 'Spanish Sun'. Il est considéré comme l'un des meilleurs rosiers aux fleurs jaunes.
 			Bouton de rose 'Friesia'
 			Rose en Pologne
 			Rose au jardin botanique de Lublin
@@ -550,7 +564,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'Friesia' a donné naissance à 
 'Goldmarie' (Kordes 1982) issu d'un croisement de semis ('Arthur Bell' x 'Zorina') x ('Honeymoon' x 'Dr. A.J. Verhage') et de pollen (non nommé x Friesia')
@@ -583,7 +599,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosier ADR 1973
 Médaille d'or de Baden-Baden 1972
